--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf10-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf10-Fgfrl1.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.123723333333333</v>
+        <v>0.667449</v>
       </c>
       <c r="N2">
-        <v>3.37117</v>
+        <v>2.002347</v>
       </c>
       <c r="O2">
-        <v>0.0874683595079124</v>
+        <v>0.05507918922684819</v>
       </c>
       <c r="P2">
-        <v>0.09211404964065721</v>
+        <v>0.05743692635237437</v>
       </c>
       <c r="Q2">
-        <v>0.2985807811555555</v>
+        <v>0.17734564896</v>
       </c>
       <c r="R2">
-        <v>2.687227030399999</v>
+        <v>1.59611084064</v>
       </c>
       <c r="S2">
-        <v>0.0874683595079124</v>
+        <v>0.05507918922684819</v>
       </c>
       <c r="T2">
-        <v>0.09211404964065721</v>
+        <v>0.05743692635237437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>27.47633</v>
       </c>
       <c r="O3">
-        <v>0.7129007170798384</v>
+        <v>0.7558000582962523</v>
       </c>
       <c r="P3">
-        <v>0.7507648755663697</v>
+        <v>0.7881530736897923</v>
       </c>
       <c r="Q3">
         <v>2.433548018844444</v>
@@ -638,10 +638,10 @@
         <v>21.90193216959999</v>
       </c>
       <c r="S3">
-        <v>0.7129007170798384</v>
+        <v>0.7558000582962523</v>
       </c>
       <c r="T3">
-        <v>0.7507648755663697</v>
+        <v>0.7881530736897923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.247236</v>
+        <v>0.4726029999999999</v>
       </c>
       <c r="N4">
-        <v>0.741708</v>
+        <v>1.417809</v>
       </c>
       <c r="O4">
-        <v>0.01924435195908088</v>
+        <v>0.0390001184602511</v>
       </c>
       <c r="P4">
-        <v>0.02026647351835493</v>
+        <v>0.04066956981718631</v>
       </c>
       <c r="Q4">
-        <v>0.06569225344</v>
+        <v>0.1255737677866667</v>
       </c>
       <c r="R4">
-        <v>0.59123028096</v>
+        <v>1.13016391008</v>
       </c>
       <c r="S4">
-        <v>0.01924435195908088</v>
+        <v>0.0390001184602511</v>
       </c>
       <c r="T4">
-        <v>0.02026647351835493</v>
+        <v>0.04066956981718631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.943811</v>
+        <v>1.4922995</v>
       </c>
       <c r="N5">
-        <v>3.887622</v>
+        <v>2.984599</v>
       </c>
       <c r="O5">
-        <v>0.1513023306716375</v>
+        <v>0.1231474562755071</v>
       </c>
       <c r="P5">
-        <v>0.106225614813881</v>
+        <v>0.08561263005581461</v>
       </c>
       <c r="Q5">
-        <v>0.51648354144</v>
+        <v>0.3965139258133333</v>
       </c>
       <c r="R5">
-        <v>3.09890124864</v>
+        <v>2.37908355488</v>
       </c>
       <c r="S5">
-        <v>0.1513023306716375</v>
+        <v>0.1231474562755071</v>
       </c>
       <c r="T5">
-        <v>0.106225614813881</v>
+        <v>0.08561263005581461</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.373651</v>
+        <v>0.3268606666666667</v>
       </c>
       <c r="N6">
-        <v>1.120953</v>
+        <v>0.9805820000000001</v>
       </c>
       <c r="O6">
-        <v>0.02908424078153073</v>
+        <v>0.0269731777411414</v>
       </c>
       <c r="P6">
-        <v>0.03062898646073726</v>
+        <v>0.02812780008483244</v>
       </c>
       <c r="Q6">
-        <v>0.09928156170666666</v>
+        <v>0.08684905820444444</v>
       </c>
       <c r="R6">
-        <v>0.89353405536</v>
+        <v>0.78164152384</v>
       </c>
       <c r="S6">
-        <v>0.02908424078153073</v>
+        <v>0.0269731777411414</v>
       </c>
       <c r="T6">
-        <v>0.03062898646073726</v>
+        <v>0.02812780008483244</v>
       </c>
     </row>
   </sheetData>
